--- a/Data/Calibration/Firm Calibration/data/soi/data/soi_proprietorship/sp01br_Crosswalks/12sp01br_Crosswalk.xlsx
+++ b/Data/Calibration/Firm Calibration/data/soi/data/soi_proprietorship/sp01br_Crosswalks/12sp01br_Crosswalk.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Lott, Sherwin\OLG Dynamic Scoring Model\Calibration\Draft 2\Program\data\SOI_Proprietorships\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sherwin.lott\Documents\Firm Calibration\data\soi\data\soi_proprietorship\sp01br_Crosswalks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -479,7 +479,7 @@
     <t>Industry</t>
   </si>
   <si>
-    <t>Codes</t>
+    <t>Codes:</t>
   </si>
 </sst>
 </file>
@@ -822,7 +822,7 @@
   <dimension ref="A1:B149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
